--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - SITC2 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - SITC2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="40">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -133,7 +133,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:48:13</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:27:12</t>
   </si>
 </sst>
 </file>
@@ -5017,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>1613514.0</v>
+        <v>1616126.0</v>
       </c>
     </row>
     <row r="345">
@@ -5028,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>4802550.0</v>
+        <v>4802691.0</v>
       </c>
     </row>
     <row r="346">
@@ -5042,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="D346" t="n" s="10">
-        <v>1691532.0</v>
+        <v>1694571.0</v>
       </c>
     </row>
     <row r="347">
@@ -5053,7 +5053,7 @@
         <v>10</v>
       </c>
       <c r="D347" t="n" s="10">
-        <v>4902490.0</v>
+        <v>4924589.0</v>
       </c>
     </row>
     <row r="348">
@@ -5067,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="D348" t="n" s="10">
-        <v>1720797.0</v>
+        <v>1725668.0</v>
       </c>
     </row>
     <row r="349">
@@ -5078,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="D349" t="n" s="10">
-        <v>5170658.0</v>
+        <v>5207521.0</v>
       </c>
     </row>
     <row r="350">
@@ -5092,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="D350" t="n" s="10">
-        <v>1782836.0</v>
+        <v>1806886.0</v>
       </c>
     </row>
     <row r="351">
@@ -5103,7 +5103,7 @@
         <v>10</v>
       </c>
       <c r="D351" t="n" s="10">
-        <v>5387927.0</v>
+        <v>5391714.0</v>
       </c>
     </row>
     <row r="352">
@@ -5117,7 +5117,7 @@
         <v>10</v>
       </c>
       <c r="D352" t="n" s="10">
-        <v>1805796.0</v>
+        <v>1813007.0</v>
       </c>
     </row>
     <row r="353">
@@ -5128,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="D353" t="n" s="10">
-        <v>5963172.0</v>
+        <v>6003871.0</v>
       </c>
     </row>
     <row r="354">
@@ -5142,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="D354" t="n" s="10">
-        <v>1724419.0</v>
+        <v>1770253.0</v>
       </c>
     </row>
     <row r="355">
@@ -5153,7 +5153,7 @@
         <v>10</v>
       </c>
       <c r="D355" t="n" s="10">
-        <v>5591988.0</v>
+        <v>5622871.0</v>
       </c>
     </row>
     <row r="356" ht="50.6" customHeight="true">
@@ -5172,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="D357" t="n" s="10">
-        <v>1804659.0</v>
+        <v>1823749.0</v>
       </c>
     </row>
     <row r="358">
@@ -5183,7 +5183,7 @@
         <v>10</v>
       </c>
       <c r="D358" t="n" s="10">
-        <v>5956812.0</v>
+        <v>5981822.0</v>
       </c>
     </row>
     <row r="359">
@@ -5196,8 +5196,8 @@
       <c r="C359" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D359" t="s" s="10">
-        <v>37</v>
+      <c r="D359" t="n" s="10">
+        <v>2020344.0</v>
       </c>
     </row>
     <row r="360">
@@ -5207,8 +5207,8 @@
       <c r="C360" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D360" t="s" s="10">
-        <v>37</v>
+      <c r="D360" t="n" s="10">
+        <v>6152618.0</v>
       </c>
     </row>
     <row r="361">
@@ -5221,8 +5221,8 @@
       <c r="C361" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D361" t="s" s="10">
-        <v>37</v>
+      <c r="D361" t="n" s="10">
+        <v>2492985.0</v>
       </c>
     </row>
     <row r="362">
@@ -5232,8 +5232,8 @@
       <c r="C362" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D362" t="s" s="10">
-        <v>37</v>
+      <c r="D362" t="n" s="10">
+        <v>7385931.0</v>
       </c>
     </row>
     <row r="363">
@@ -5246,8 +5246,8 @@
       <c r="C363" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D363" t="s" s="10">
-        <v>37</v>
+      <c r="D363" t="n" s="10">
+        <v>3027401.0</v>
       </c>
     </row>
     <row r="364">
@@ -5257,8 +5257,8 @@
       <c r="C364" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D364" t="s" s="10">
-        <v>37</v>
+      <c r="D364" t="n" s="10">
+        <v>7882478.0</v>
       </c>
     </row>
     <row r="365">
@@ -5496,7 +5496,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:48:17&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:27:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - SITC2 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - SITC2 codes.xlsx
@@ -133,7 +133,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:27:12</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:38:43</t>
   </si>
 </sst>
 </file>
@@ -5496,7 +5496,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:27:15&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:38:47&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>